--- a/data/trans_orig/P16B17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43289D7-9073-4F8F-A701-2383755248B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA689261-7063-4CC9-B884-4477CFACEDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EAD68D76-5100-470D-B309-5C1022C88EF3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0A11EC5-E5C9-43EA-8DA6-6B2827BED069}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71CA9F0-D065-4347-BE72-83EB8150F97B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C9A2F5-86E4-42B9-808A-BB88EC98042A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B1470D-5E92-48FA-AE02-B494002A5A00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FB5B4E-6BD9-4018-9817-51A86927781B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7ADB8D-050F-49A5-8ED4-229514D208CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EACEFA-A3BE-488D-94B2-DEB692364926}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA689261-7063-4CC9-B884-4477CFACEDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38236512-1D95-4FCD-A158-526DDBBC04CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0A11EC5-E5C9-43EA-8DA6-6B2827BED069}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{853ADEF3-D68D-4247-9805-3252CAA8272D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -85,19 +85,19 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -127,7 +127,7 @@
     <t>90,51%</t>
   </si>
   <si>
-    <t>Porcentaje de hormonas para la menopausia recetados en 2015 (Tasa respuesta: 0,26%)</t>
+    <t>Porcentaje de hormonas para la menopausia recetados en 2016 (Tasa respuesta: 0,26%)</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C9A2F5-86E4-42B9-808A-BB88EC98042A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF3C8ED-DC07-497E-ABF7-7EB541125D8A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FB5B4E-6BD9-4018-9817-51A86927781B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DD4AA3-CF19-4B57-A4DF-5701E93DE1C8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EACEFA-A3BE-488D-94B2-DEB692364926}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD46C4A5-DA5F-403E-A603-76F34F65AF7C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B17-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38236512-1D95-4FCD-A158-526DDBBC04CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{353C0B26-CD8D-4FB1-A70A-84F36B8EF480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{853ADEF3-D68D-4247-9805-3252CAA8272D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF0239E0-1F92-4960-BBE1-F0CD93025966}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF3C8ED-DC07-497E-ABF7-7EB541125D8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB726814-618B-426B-A044-29957B4713FA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DD4AA3-CF19-4B57-A4DF-5701E93DE1C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A094872-309F-4013-9940-1BD68121DFB0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD46C4A5-DA5F-403E-A603-76F34F65AF7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABC1635-D502-4714-8CE2-888F0E9C25F7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
